--- a/results/mod3.corrupt_salienceBYhealth.eff.MN.xlsx
+++ b/results/mod3.corrupt_salienceBYhealth.eff.MN.xlsx
@@ -410,25 +410,25 @@
         <v>8</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0564443618189423</v>
+        <v>0.0564441841535383</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0274384218391699</v>
+        <v>0.0274382251096849</v>
       </c>
       <c r="D2" t="e">
         <v>#NUM!</v>
       </c>
       <c r="E2" t="n">
-        <v>0.00266604322155214</v>
+        <v>0.00266625113885326</v>
       </c>
       <c r="F2" t="n">
-        <v>0.110222680416333</v>
+        <v>0.110222117168223</v>
       </c>
       <c r="G2" t="n">
-        <v>2.0571285823139</v>
+        <v>2.05713685662616</v>
       </c>
       <c r="H2" t="n">
-        <v>0.03967385899773</v>
+        <v>0.0396730632977377</v>
       </c>
     </row>
     <row r="3">
@@ -436,25 +436,25 @@
         <v>9</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.199063803000555</v>
+        <v>-0.199063376611216</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0576116286338032</v>
+        <v>0.0576109547153238</v>
       </c>
       <c r="D3" t="e">
         <v>#NUM!</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.311980520213506</v>
+        <v>-0.311978772968219</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.0861470857876042</v>
+        <v>-0.0861479802542139</v>
       </c>
       <c r="G3" t="n">
-        <v>-3.455271231193</v>
+        <v>-3.455304248903</v>
       </c>
       <c r="H3" t="n">
-        <v>0.000549739492489917</v>
+        <v>0.000549672169530571</v>
       </c>
     </row>
     <row r="4">
@@ -462,25 +462,25 @@
         <v>10</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0788958904198723</v>
+        <v>0.0788956277980848</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0229490140715207</v>
+        <v>0.0229488110438928</v>
       </c>
       <c r="D4" t="e">
         <v>#NUM!</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0339166493589889</v>
+        <v>0.0339167846640398</v>
       </c>
       <c r="F4" t="n">
-        <v>0.123875131480756</v>
+        <v>0.12387447093213</v>
       </c>
       <c r="G4" t="n">
-        <v>3.43787712073351</v>
+        <v>3.43789609174897</v>
       </c>
       <c r="H4" t="n">
-        <v>0.000586293687672372</v>
+        <v>0.000586252614955421</v>
       </c>
     </row>
     <row r="5">
@@ -488,25 +488,25 @@
         <v>11</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0637235507617404</v>
+        <v>0.0637235646595933</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0210702175244229</v>
+        <v>0.0210699997330541</v>
       </c>
       <c r="D5" t="e">
         <v>#NUM!</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0224266832674468</v>
+        <v>0.0224271240285387</v>
       </c>
       <c r="F5" t="n">
-        <v>0.105020418256034</v>
+        <v>0.105020005290648</v>
       </c>
       <c r="G5" t="n">
-        <v>3.0243423300152</v>
+        <v>3.02437425092252</v>
       </c>
       <c r="H5" t="n">
-        <v>0.00249174314079344</v>
+        <v>0.00249148021979813</v>
       </c>
     </row>
   </sheetData>
